--- a/設計書/画面設計書/チャット一覧_画面設計書.xlsx
+++ b/設計書/画面設計書/チャット一覧_画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calpi\Documents\TunagAppCloneDocuments\設計書\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD96EC78-761D-4678-A061-C06388FCA42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10CE4C-5B69-4DC0-B753-DE1B48DCFF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="チャット一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>画面ID</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>文字種</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>備考</t>
   </si>
   <si>
     <t>イベント</t>
@@ -344,6 +338,10 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -717,6 +715,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -729,7 +738,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,12 +771,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -786,18 +803,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2214,7 +2253,7 @@
     <col min="1" max="1" width="12.6328125" style="4"/>
     <col min="2" max="2" width="26.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="12.6328125" style="4"/>
-    <col min="9" max="9" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="12.6328125" style="4"/>
   </cols>
   <sheetData>
@@ -2223,15 +2262,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="41"/>
+      <c r="D1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2246,25 +2285,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="G4" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="19"/>
     </row>
@@ -2390,105 +2429,103 @@
       <c r="I32" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>1</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>2</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="H38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>3</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="15">
         <v>8</v>
@@ -2496,39 +2533,39 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="H39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="51"/>
     </row>
     <row r="40" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>4</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>5</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="15">
         <v>10</v>
@@ -2536,46 +2573,46 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="H41" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>6</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>7</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="H43" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
@@ -2585,8 +2622,8 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
@@ -2596,8 +2633,8 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
@@ -2607,8 +2644,8 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
@@ -2618,8 +2655,8 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
     </row>
     <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
@@ -2629,8 +2666,8 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
@@ -2640,8 +2677,8 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
@@ -2651,8 +2688,8 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51"/>
     </row>
     <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
@@ -2662,265 +2699,251 @@
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
     </row>
     <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="36"/>
+      <c r="A53" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="38"/>
-      <c r="I54" s="39"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>1</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>2</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>3</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
+        <v>36</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="40"/>
     </row>
     <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>5</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="40"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="40"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="27"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
     </row>
     <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="40"/>
     </row>
     <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="40"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="27"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="40"/>
     </row>
     <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="24"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
+  <mergeCells count="57">
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="G59:I59"/>
     <mergeCell ref="G60:I60"/>
@@ -2937,6 +2960,34 @@
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
